--- a/resources/Login/Login.xlsx
+++ b/resources/Login/Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999CBBD-F14B-4302-ADDE-A3A50EABE5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D48CF-E1BC-4EFE-A87B-AF9657E8C95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2370" windowWidth="12825" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,10 +94,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -429,7 +443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -439,30 +455,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>123456</v>
       </c>
     </row>
